--- a/チュ－トリアル.xlsx
+++ b/チュ－トリアル.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>チュートリアル</t>
     <phoneticPr fontId="2"/>
@@ -779,13 +779,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これでチュートリアルを終了します。</t>
-    <rPh sb="11" eb="13">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>もう一度RBボタンを押すと木にロック、右スティックでロック解除できます。</t>
     <rPh sb="2" eb="4">
       <t>イチド</t>
@@ -881,6 +874,228 @@
       <t>ホン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同時に行動ログも</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左下に張れる糸残量が表示されますので気をつけてください</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登ると真ん中のゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「近くの木に狙って…」のとこでターゲット情報と糸残量</t>
+    <rPh sb="1" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※タイマーはずっと非表示</t>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『』の行動で15秒間その行動をしてくれなかったら1つ前の文章を再び表示</t>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵も同様に体当たりをしてきます</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵に狙われたときは画面上に警告が出ます</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵から体当たりが来るのでジャンプや移動でよけてください</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『左スティックまたはジャンプで避ける』</t>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その場でとどまってると体当たりを受けてしまうので気を付けてください</t>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上でチュートリアルを終了します。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←敵が体当たり終了したら消す</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告マーク表示</t>
   </si>
 </sst>
 </file>
@@ -952,12 +1167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1243,15 +1459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="5"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.75" x14ac:dyDescent="0.55000000000000004">
@@ -1271,29 +1491,41 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>56</v>
+      <c r="P5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
+      <c r="I7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>2</v>
@@ -1303,7 +1535,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AG8" s="1" t="s">
@@ -1314,7 +1546,7 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1322,7 +1554,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AG10" s="1" t="s">
@@ -1346,8 +1578,11 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>6</v>
@@ -1357,6 +1592,9 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="P14" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -1371,222 +1609,276 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="P18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>50</v>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
